--- a/trunk/implementacion/webapps/includees/archivos/excel/Reporte de existencia.xlsx
+++ b/trunk/implementacion/webapps/includees/archivos/excel/Reporte de existencia.xlsx
@@ -20,7 +20,7 @@
     <t>Mayucsa</t>
   </si>
   <si>
-    <t>2023/01/05</t>
+    <t>2023/01/06</t>
   </si>
   <si>
     <t>cve alterna</t>

--- a/trunk/implementacion/webapps/includees/archivos/excel/Reporte de existencia.xlsx
+++ b/trunk/implementacion/webapps/includees/archivos/excel/Reporte de existencia.xlsx
@@ -15,15 +15,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="244">
   <si>
     <t>Mayucsa</t>
   </si>
   <si>
-    <t>2023/01/06</t>
+    <t>2023/01/18</t>
   </si>
   <si>
     <t>cve alterna</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Existencia</t>
+  </si>
+  <si>
+    <t>Mínimo</t>
+  </si>
+  <si>
+    <t>Máximo</t>
+  </si>
+  <si>
+    <t>Precio unitario</t>
+  </si>
+  <si>
+    <t>Costo total</t>
   </si>
   <si>
     <t>X002</t>
@@ -1077,10 +1095,10 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="true" customWidth="true" style="1"/>
     <col min="2" max="2" width="70" bestFit="true" customWidth="true" style="1"/>
-    <col min="3" max="3" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="18" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="13" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -1097,33 +1115,33 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="D4">
         <v>0.0</v>
@@ -1140,10 +1158,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>0.0</v>
@@ -1163,10 +1181,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>0.0</v>
@@ -1186,10 +1204,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>0.0</v>
@@ -1209,10 +1227,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>0.0</v>
@@ -1232,10 +1250,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>0.0</v>
@@ -1255,10 +1273,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>0.0</v>
@@ -1278,10 +1296,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>0.0</v>
@@ -1301,10 +1319,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>0.0</v>
@@ -1324,13 +1342,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C13">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="D13">
         <v>0.0</v>
@@ -1347,10 +1365,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>10.0</v>
@@ -1370,10 +1388,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>25.0</v>
@@ -1393,10 +1411,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>1.0</v>
@@ -1419,7 +1437,7 @@
         <v>110</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>4.0</v>
@@ -1442,7 +1460,7 @@
         <v>111</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>18.0</v>
@@ -1465,7 +1483,7 @@
         <v>114</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>0.0</v>
@@ -1488,7 +1506,7 @@
         <v>115</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>10.0</v>
@@ -1508,10 +1526,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C21">
         <v>40.0</v>
@@ -1531,10 +1549,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C22">
         <v>4.0</v>
@@ -1554,10 +1572,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C23">
         <v>2.0</v>
@@ -1577,10 +1595,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C24">
         <v>2.0</v>
@@ -1600,10 +1618,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C25">
         <v>2.0</v>
@@ -1623,13 +1641,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>3000.0</v>
+        <v>2999.0</v>
       </c>
       <c r="D26">
         <v>0.0</v>
@@ -1646,10 +1664,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C27">
         <v>2.0</v>
@@ -1669,10 +1687,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C28">
         <v>2.0</v>
@@ -1692,10 +1710,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C29">
         <v>4.0</v>
@@ -1715,10 +1733,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C30">
         <v>1.0</v>
@@ -1738,10 +1756,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C31">
         <v>69.0</v>
@@ -1761,10 +1779,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C32">
         <v>17.0</v>
@@ -1784,10 +1802,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C33">
         <v>300.0</v>
@@ -1807,10 +1825,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C34">
         <v>6.0</v>
@@ -1830,10 +1848,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C35">
         <v>10.0</v>
@@ -1853,10 +1871,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C36">
         <v>31.0</v>
@@ -1876,10 +1894,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C37">
         <v>23.0</v>
@@ -1899,10 +1917,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C38">
         <v>15.0</v>
@@ -1922,10 +1940,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C39">
         <v>1.0</v>
@@ -1945,10 +1963,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C40">
         <v>3.0</v>
@@ -1968,13 +1986,13 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C41">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="D41">
         <v>0.0</v>
@@ -1991,10 +2009,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C42">
         <v>10.0</v>
@@ -2014,10 +2032,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C43">
         <v>0.0</v>
@@ -2037,10 +2055,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C44">
         <v>3.0</v>
@@ -2060,10 +2078,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C45">
         <v>1.0</v>
@@ -2083,10 +2101,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C46">
         <v>1.0</v>
@@ -2106,10 +2124,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C47">
         <v>1.0</v>
@@ -2129,10 +2147,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C48">
         <v>2.0</v>
@@ -2152,10 +2170,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C49">
         <v>3.0</v>
@@ -2175,10 +2193,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C50">
         <v>9.0</v>
@@ -2198,10 +2216,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C51">
         <v>3.0</v>
@@ -2221,10 +2239,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C52">
         <v>5.0</v>
@@ -2244,10 +2262,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C53">
         <v>0.0</v>
@@ -2267,10 +2285,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C54">
         <v>0.0</v>
@@ -2290,10 +2308,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C55">
         <v>0.0</v>
@@ -2313,10 +2331,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C56">
         <v>0.0</v>
@@ -2336,10 +2354,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C57">
         <v>0.0</v>
@@ -2359,10 +2377,10 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C58">
         <v>3.0</v>
@@ -2382,10 +2400,10 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C59">
         <v>0.0</v>
@@ -2405,10 +2423,10 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C60">
         <v>0.0</v>
@@ -2428,10 +2446,10 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C61">
         <v>10.0</v>
@@ -2451,10 +2469,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C62">
         <v>0.0</v>
@@ -2474,10 +2492,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C63">
         <v>0.0</v>
@@ -2497,10 +2515,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C64">
         <v>0.0</v>
@@ -2523,7 +2541,7 @@
         <v>127</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C65">
         <v>0.0</v>
@@ -2543,10 +2561,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C66">
         <v>25.0</v>
@@ -2566,10 +2584,10 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C67">
         <v>0.0</v>
@@ -2589,10 +2607,10 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C68">
         <v>0.0</v>
@@ -2612,10 +2630,10 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C69">
         <v>0.0</v>
@@ -2635,10 +2653,10 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C70">
         <v>0.0</v>
@@ -2658,10 +2676,10 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C71">
         <v>0.0</v>
@@ -2681,13 +2699,13 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C72">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D72">
         <v>0.0</v>
@@ -2704,10 +2722,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C73">
         <v>3.0</v>
@@ -2727,10 +2745,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C74">
         <v>0.0</v>
@@ -2750,10 +2768,10 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C75">
         <v>5.0</v>
@@ -2773,10 +2791,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C76">
         <v>4.0</v>
@@ -2796,13 +2814,13 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C77">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="D77">
         <v>0.0</v>
@@ -2819,10 +2837,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C78">
         <v>10.0</v>
@@ -2842,10 +2860,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C79">
         <v>0.0</v>
@@ -2868,7 +2886,7 @@
         <v>108</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C80">
         <v>0.0</v>
@@ -2891,7 +2909,7 @@
         <v>117</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C81">
         <v>36.0</v>
@@ -2914,7 +2932,7 @@
         <v>118</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C82">
         <v>22.0</v>
@@ -2934,10 +2952,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C83">
         <v>0.0</v>
@@ -2957,10 +2975,10 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C84">
         <v>1.0</v>
@@ -2980,10 +2998,10 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C85">
         <v>0.0</v>
@@ -3003,10 +3021,10 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C86">
         <v>0.0</v>
@@ -3026,10 +3044,10 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C87">
         <v>2.0</v>
@@ -3049,13 +3067,13 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C88">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D88">
         <v>0.0</v>
@@ -3072,10 +3090,10 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C89">
         <v>0.0</v>
@@ -3095,10 +3113,10 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C90">
         <v>100.0</v>
@@ -3118,10 +3136,10 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C91">
         <v>0.0</v>
@@ -3141,10 +3159,10 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C92">
         <v>0.0</v>
@@ -3167,7 +3185,7 @@
         <v>123</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C93">
         <v>0.0</v>
@@ -3187,10 +3205,10 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C94">
         <v>0.0</v>
@@ -3210,10 +3228,10 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C95">
         <v>0.0</v>
@@ -3233,10 +3251,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C96">
         <v>0.0</v>
@@ -3256,10 +3274,10 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C97">
         <v>1.0</v>
@@ -3279,10 +3297,10 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C98">
         <v>0.0</v>
@@ -3305,7 +3323,7 @@
         <v>120</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C99">
         <v>0.0</v>
@@ -3328,7 +3346,7 @@
         <v>122</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C100">
         <v>0.0</v>
@@ -3351,7 +3369,7 @@
         <v>124</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C101">
         <v>0.0</v>
@@ -3374,7 +3392,7 @@
         <v>128</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C102">
         <v>0.0</v>
@@ -3397,7 +3415,7 @@
         <v>119</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C103">
         <v>0.0</v>
@@ -3417,10 +3435,10 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C104">
         <v>0.0</v>
@@ -3440,10 +3458,10 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C105">
         <v>0.0</v>
@@ -3463,10 +3481,10 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C106">
         <v>0.0</v>
@@ -3486,10 +3504,10 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C107">
         <v>2.0</v>
@@ -3509,10 +3527,10 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C108">
         <v>0.0</v>
@@ -3532,10 +3550,10 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C109">
         <v>0.0</v>
@@ -3555,10 +3573,10 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C110">
         <v>0.0</v>
@@ -3578,10 +3596,10 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C111">
         <v>0.0</v>
@@ -3601,10 +3619,10 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C112">
         <v>0.0</v>
@@ -3624,10 +3642,10 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C113">
         <v>0.0</v>
@@ -3647,10 +3665,10 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C114">
         <v>0.0</v>
@@ -3673,7 +3691,7 @@
         <v>129</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C115">
         <v>0.0</v>
@@ -3693,10 +3711,10 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C116">
         <v>0.0</v>
@@ -3716,10 +3734,10 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C117">
         <v>0.0</v>
@@ -3739,10 +3757,10 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C118">
         <v>0.0</v>
@@ -3762,10 +3780,10 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C119">
         <v>0.0</v>
@@ -3785,10 +3803,10 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C120">
         <v>0.0</v>
@@ -3808,10 +3826,10 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C121">
         <v>0.0</v>
@@ -3834,7 +3852,7 @@
         <v>112</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C122">
         <v>1.0</v>
@@ -3857,7 +3875,7 @@
         <v>113</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C123">
         <v>1.0</v>
@@ -3880,7 +3898,7 @@
         <v>130</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C124">
         <v>2.0</v>
@@ -3903,7 +3921,7 @@
         <v>131</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C125">
         <v>1.0</v>
@@ -3923,10 +3941,10 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C126">
         <v>90.0</v>
@@ -3946,10 +3964,10 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C127">
         <v>1.0</v>
@@ -3969,10 +3987,10 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C128">
         <v>0.0</v>
@@ -3992,10 +4010,10 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C129">
         <v>16.0</v>
@@ -4015,10 +4033,10 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C130">
         <v>0.0</v>
